--- a/data/trans_camb/P23_10_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_10_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-2,74</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,36</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-3,18</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 7,83</t>
+          <t>-3,6; 8,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 1,66</t>
+          <t>-7,58; 2,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,47</t>
+          <t>-9,47; 0,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -0,44</t>
+          <t>-7,81; 1,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,34</t>
+          <t>-9,04; 0,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,54; -0,29</t>
+          <t>-7,48; 3,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 3,06</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; -0,15</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 0,52</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-29,58%</t>
+          <t>-33,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-27,26%</t>
+          <t>-50,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-50,93%</t>
+          <t>-36,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,7%</t>
+          <t>-53,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-40,21%</t>
+          <t>-34,8%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-7,23%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-44,38%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-42,02%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,54; 148,57</t>
+          <t>-38,95; 195,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,1; 38,47</t>
+          <t>-74,26; 61,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,57; 34,57</t>
+          <t>-86,83; 23,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,68; -1,78</t>
+          <t>-73,33; 39,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 57,56</t>
+          <t>-84,21; 2,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,61; -3,9</t>
+          <t>-71,94; 76,12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-47,7; 53,68</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-73,08; -2,14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-70,96; 11,22</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,38</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>-5,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>-2,16</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-4,75</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,77</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,97</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,97; -1,54</t>
+          <t>-10,39; 1,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 0,8</t>
+          <t>-7,79; 5,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -3,91</t>
+          <t>-10,35; 1,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -0,2</t>
+          <t>-10,64; -0,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -4,09</t>
+          <t>-8,75; 2,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -1,4</t>
+          <t>-8,43; 4,41</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; -1,26</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,35; 2,49</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 1,51</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-65,87%</t>
+          <t>-49,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-45,64%</t>
+          <t>-11,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-76,81%</t>
+          <t>-44,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-49,51%</t>
+          <t>-61,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-71,56%</t>
+          <t>-30,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,69%</t>
+          <t>-25,41%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-55,63%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-20,79%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-34,75%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-94,45; -20,65</t>
+          <t>-84,63; 37,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,19; 19,58</t>
+          <t>-64,61; 111,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-90,98; -49,44</t>
+          <t>-83,44; 44,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,57; -1,4</t>
+          <t>-88,73; -1,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,09; -47,58</t>
+          <t>-73,27; 62,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,32; -15,17</t>
+          <t>-72,71; 94,06</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-78,74; -14,82</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-59,98; 38,19</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-69,08; 29,52</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>14,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>5,95</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,08</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,06</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 35,38</t>
+          <t>-10,6; 58,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 17,49</t>
+          <t>-9,73; 32,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,62</t>
+          <t>-20,57; 4,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 17,07</t>
+          <t>-2,64; 18,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 20,15</t>
+          <t>-2,55; 17,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 12,53</t>
+          <t>-2,44; 22,4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 37,08</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 18,88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,56; 10,9</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>199,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>65,48%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>423,36%</t>
+          <t>-60,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>472,09%</t>
+          <t>167,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>124,77%</t>
+          <t>161,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>137,28%</t>
+          <t>243,03%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>187,15%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>104,27%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14,14%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1228,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,22; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,84; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,72; 928,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-74,77; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 2,59</t>
+          <t>-3,92; 8,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,09</t>
+          <t>-5,27; 3,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; -1,12</t>
+          <t>-7,41; -0,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -0,71</t>
+          <t>-6,3; 0,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,66; -0,02</t>
+          <t>-6,27; 0,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,46</t>
+          <t>-5,34; 2,41</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 2,69</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 0,94</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 0,16</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-20,24%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-29,99%</t>
+          <t>-11,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-47,57%</t>
+          <t>-48,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-41,94%</t>
+          <t>-41,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-33,88%</t>
+          <t>-36,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-35,81%</t>
+          <t>-21,99%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-16,79%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-24,12%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-35,15%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 43,68</t>
+          <t>-42,25; 140,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,85; 21,38</t>
+          <t>-51,1; 63,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,28; -15,51</t>
+          <t>-74,69; -1,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,99; -8,08</t>
+          <t>-67,54; 10,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,95; 2,19</t>
+          <t>-64,74; 11,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,87; -5,67</t>
+          <t>-58,2; 45,79</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-45,17; 48,3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-50,0; 15,31</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-59,08; 3,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
